--- a/completeResults/experiment info.xlsx
+++ b/completeResults/experiment info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582F212C-7FE8-4E15-A7E6-F25F41C8DB2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4369B67-9E1F-4CAD-8B16-EDA9DB4811AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15686" yWindow="3921" windowWidth="18514" windowHeight="11456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6171" yWindow="1826" windowWidth="18515" windowHeight="11455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults and finalResult" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
   <si>
     <t>results00_swap21_exchange_5050_levy6.csv</t>
   </si>
@@ -316,9 +316,6 @@
     <t>results00_crossTwoOpt_swap21_doubleBridge_5050_levy4_levy5.csv</t>
   </si>
   <si>
-    <t>REMOVE THIS DUPLICATE</t>
-  </si>
-  <si>
     <t>ongoing on main pc</t>
   </si>
   <si>
@@ -446,6 +443,12 @@
   </si>
   <si>
     <t>RE DO THESE FOR 500 ITERATIONS</t>
+  </si>
+  <si>
+    <t>ongoing on camille pc</t>
+  </si>
+  <si>
+    <t>ongoing on 2nd pc</t>
   </si>
 </sst>
 </file>
@@ -968,6 +971,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="20" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="40"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -977,8 +982,6 @@
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1336,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -1472,14 +1475,14 @@
         <v>49</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z4" t="s">
         <v>74</v>
       </c>
-      <c r="W4" s="6"/>
-      <c r="X4" t="s">
-        <v>133</v>
+      <c r="AA4" s="6"/>
+      <c r="AB4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.3">
@@ -1489,9 +1492,9 @@
       <c r="H5" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" t="s">
-        <v>134</v>
+      <c r="AA5" s="7"/>
+      <c r="AB5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.3">
@@ -1507,12 +1510,15 @@
       <c r="I6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="8"/>
-      <c r="X6" t="s">
-        <v>136</v>
+      <c r="V6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.3">
@@ -1527,14 +1533,17 @@
         <v>2</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="W7" s="9"/>
-      <c r="X7" t="s">
-        <v>135</v>
+        <v>113</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA7" s="9"/>
+      <c r="AB7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.3">
@@ -1570,9 +1579,6 @@
       <c r="P9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="V9" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -1653,10 +1659,10 @@
         <v>9</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -1772,10 +1778,10 @@
         <v>16</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -1891,10 +1897,10 @@
         <v>23</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
@@ -1925,10 +1931,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -1993,10 +1999,10 @@
         <v>29</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
@@ -2010,10 +2016,10 @@
         <v>30</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
@@ -2044,10 +2050,10 @@
         <v>32</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -2061,10 +2067,10 @@
         <v>33</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
@@ -2078,10 +2084,10 @@
         <v>34</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
@@ -2095,10 +2101,10 @@
         <v>35</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
@@ -2129,10 +2135,10 @@
         <v>37</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -2146,10 +2152,10 @@
         <v>38</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -2163,10 +2169,10 @@
         <v>39</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
@@ -2180,10 +2186,10 @@
         <v>40</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
@@ -2197,10 +2203,10 @@
         <v>41</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
@@ -2211,10 +2217,10 @@
         <v>42</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -2225,13 +2231,13 @@
         <v>43</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" t="e">
         <v>#N/A</v>
       </c>
@@ -2239,34 +2245,37 @@
         <v>44</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>45</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="H51">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="I52" s="3" t="s">
         <v>87</v>
       </c>
       <c r="M52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2285,7 +2294,7 @@
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2308,7 +2317,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -2339,7 +2348,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2363,17 +2372,17 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="13"/>
+      <c r="P4" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q4" s="15"/>
     </row>
     <row r="5" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2408,54 +2417,54 @@
         <v>57</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="P6" t="s">
         <v>61</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="L7" s="4" t="s">
@@ -2466,7 +2475,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2492,40 +2501,40 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,12 +2574,12 @@
       <c r="R10" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="12" t="s">
+      <c r="V10" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2610,10 +2619,10 @@
       <c r="R11" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="12"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,13 +2635,13 @@
       <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
@@ -2654,9 +2663,9 @@
         <v>80</v>
       </c>
       <c r="U12" t="s">
-        <v>98</v>
-      </c>
-      <c r="V12" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
@@ -2705,10 +2714,10 @@
       <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="11" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="4" t="s">
@@ -2726,7 +2735,7 @@
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>56</v>
@@ -2741,7 +2750,7 @@
         <v>58</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.3">
@@ -2773,13 +2782,13 @@
         <v>58</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" t="s">
         <v>100</v>
-      </c>
-      <c r="S17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.3">
@@ -2822,7 +2831,7 @@
         <v>71</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.3">
@@ -2836,16 +2845,16 @@
         <v>59</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="R20" s="4" t="s">
+      <c r="S20" t="s">
         <v>103</v>
-      </c>
-      <c r="S20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.3">
@@ -2854,7 +2863,7 @@
       </c>
       <c r="I22" s="3"/>
       <c r="P22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.3">
@@ -2874,10 +2883,10 @@
         <v>81</v>
       </c>
       <c r="Q23" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.3">
@@ -2888,13 +2897,13 @@
         <v>61</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.3">
@@ -2902,15 +2911,15 @@
         <v>83</v>
       </c>
       <c r="Q25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.3">
       <c r="R26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/completeResults/experiment info.xlsx
+++ b/completeResults/experiment info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4369B67-9E1F-4CAD-8B16-EDA9DB4811AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109E1B3-89F0-4D6C-BE3B-BFBAE73B550A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6171" yWindow="1826" windowWidth="18515" windowHeight="11455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults and finalResult" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="161">
   <si>
     <t>results00_swap21_exchange_5050_levy6.csv</t>
   </si>
@@ -449,6 +449,69 @@
   </si>
   <si>
     <t>ongoing on 2nd pc</t>
+  </si>
+  <si>
+    <t>__exchangeIntra</t>
+  </si>
+  <si>
+    <t>__swap2_2</t>
+  </si>
+  <si>
+    <t>__reinsertionIntra</t>
+  </si>
+  <si>
+    <t>twoOpt_exchange_5050_levy6_500iter</t>
+  </si>
+  <si>
+    <t>twoOpt_orOpt3_5050_levy6_500iter</t>
+  </si>
+  <si>
+    <t>Two Small</t>
+  </si>
+  <si>
+    <t>twoOpt_doubleBridge_levy4_levy5_500iter</t>
+  </si>
+  <si>
+    <t>crossTwoOpt_swap22_levy4_levy5_500iter</t>
+  </si>
+  <si>
+    <t>crossTwoOpt_shift1_5050_levy6_500iter</t>
+  </si>
+  <si>
+    <t>twoOpt_levy6_500iter</t>
+  </si>
+  <si>
+    <t>crossTwoOpt_reinsertion_5050_levy6_500iter</t>
+  </si>
+  <si>
+    <t>One Small and One Large</t>
+  </si>
+  <si>
+    <t>One Small</t>
+  </si>
+  <si>
+    <t>camille</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>camille new</t>
+  </si>
+  <si>
+    <t>2 hours to finish</t>
+  </si>
+  <si>
+    <t>2nd pc</t>
+  </si>
+  <si>
+    <t>main pc</t>
+  </si>
+  <si>
+    <t>next on main</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1022,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -973,6 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="20"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -1510,11 +1574,11 @@
       <c r="I6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="4" t="s">
         <v>85</v>
       </c>
       <c r="V6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" t="s">
@@ -1535,11 +1599,11 @@
       <c r="I7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="V7" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" t="s">
@@ -1559,8 +1623,14 @@
       <c r="I8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>90</v>
+      </c>
+      <c r="V8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.3">
@@ -1576,8 +1646,15 @@
       <c r="I9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>86</v>
+      </c>
+      <c r="U9" s="13"/>
+      <c r="V9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.3">
@@ -1593,8 +1670,14 @@
       <c r="I10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.3">
@@ -1610,8 +1693,17 @@
       <c r="I11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>89</v>
+      </c>
+      <c r="U11" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.3">
@@ -1627,8 +1719,17 @@
       <c r="I12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>39</v>
+      </c>
+      <c r="U12" t="s">
+        <v>159</v>
+      </c>
+      <c r="V12" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.3">
@@ -1644,8 +1745,14 @@
       <c r="I13" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="O13">
+        <v>6</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>88</v>
+      </c>
+      <c r="V13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.3">
@@ -1661,8 +1768,14 @@
       <c r="I14" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="P14" s="4" t="s">
         <v>115</v>
+      </c>
+      <c r="V14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.3">
@@ -1678,8 +1791,17 @@
       <c r="I15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="U15" t="s">
+        <v>160</v>
+      </c>
+      <c r="V15" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.3">
@@ -1695,11 +1817,17 @@
       <c r="I16" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="O16">
+        <v>9</v>
+      </c>
       <c r="P16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1712,11 +1840,17 @@
       <c r="I17" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
       <c r="P17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1729,11 +1863,17 @@
       <c r="I18" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="O18">
+        <v>11</v>
+      </c>
       <c r="P18" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1746,11 +1886,17 @@
       <c r="I19" s="10" t="s">
         <v>0</v>
       </c>
+      <c r="O19">
+        <v>12</v>
+      </c>
       <c r="P19" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1763,11 +1909,17 @@
       <c r="I20" s="10" t="s">
         <v>45</v>
       </c>
+      <c r="O20">
+        <v>13</v>
+      </c>
       <c r="P20" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1780,11 +1932,17 @@
       <c r="I21" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="O21">
+        <v>14</v>
+      </c>
       <c r="P21" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1797,11 +1955,17 @@
       <c r="I22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="O22">
+        <v>15</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -1814,11 +1978,17 @@
       <c r="I23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="O23">
+        <v>16</v>
+      </c>
+      <c r="P23" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -1831,11 +2001,17 @@
       <c r="I24" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="O24">
+        <v>17</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20</v>
       </c>
@@ -1848,11 +2024,17 @@
       <c r="I25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="O25">
+        <v>18</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1865,11 +2047,23 @@
       <c r="I26" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="O26">
+        <v>19</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="U26" t="s">
+        <v>158</v>
+      </c>
+      <c r="V26" t="s">
+        <v>139</v>
+      </c>
+      <c r="W26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -1882,11 +2076,26 @@
       <c r="I27" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V27" t="s">
+        <v>139</v>
+      </c>
+      <c r="W27" t="s">
+        <v>98</v>
+      </c>
+      <c r="X27" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>23</v>
       </c>
@@ -1899,11 +2108,26 @@
       <c r="I28" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="O28">
+        <v>21</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>139</v>
+      </c>
+      <c r="W28" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>24</v>
       </c>
@@ -1916,11 +2140,26 @@
       <c r="I29" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29">
+        <v>22</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V29" t="s">
+        <v>139</v>
+      </c>
+      <c r="W29" t="s">
+        <v>81</v>
+      </c>
+      <c r="X29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>25</v>
       </c>
@@ -1933,11 +2172,26 @@
       <c r="I30" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="O30">
+        <v>23</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V30" t="s">
+        <v>139</v>
+      </c>
+      <c r="W30" t="s">
+        <v>81</v>
+      </c>
+      <c r="X30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26</v>
       </c>
@@ -1950,11 +2204,17 @@
       <c r="I31" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="O31">
+        <v>24</v>
+      </c>
       <c r="P31" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>27</v>
       </c>
@@ -1967,11 +2227,20 @@
       <c r="I32" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
       <c r="P32" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T32" t="s">
+        <v>155</v>
+      </c>
+      <c r="V32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28</v>
       </c>
@@ -1984,11 +2253,17 @@
       <c r="I33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="O33">
+        <v>26</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>29</v>
       </c>
@@ -2001,11 +2276,17 @@
       <c r="I34" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="P34" s="3" t="s">
+      <c r="O34">
+        <v>27</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V34" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>30</v>
       </c>
@@ -2018,11 +2299,20 @@
       <c r="I35" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P35" s="3" t="s">
+      <c r="O35">
+        <v>28</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V35" t="s">
+        <v>156</v>
+      </c>
+      <c r="W35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>31</v>
       </c>
@@ -2035,11 +2325,26 @@
       <c r="I36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="O36">
+        <v>29</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V36" t="s">
+        <v>156</v>
+      </c>
+      <c r="W36" t="s">
+        <v>81</v>
+      </c>
+      <c r="X36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>32</v>
       </c>
@@ -2052,11 +2357,26 @@
       <c r="I37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="O37">
+        <v>30</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V37" t="s">
+        <v>156</v>
+      </c>
+      <c r="W37" t="s">
+        <v>98</v>
+      </c>
+      <c r="X37" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>33</v>
       </c>
@@ -2069,11 +2389,20 @@
       <c r="I38" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="O38">
+        <v>31</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V38" t="s">
+        <v>156</v>
+      </c>
+      <c r="W38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>34</v>
       </c>
@@ -2086,11 +2415,23 @@
       <c r="I39" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="O39">
+        <v>32</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V39" t="s">
+        <v>156</v>
+      </c>
+      <c r="W39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>35</v>
       </c>
@@ -2103,11 +2444,17 @@
       <c r="I40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="O40">
+        <v>33</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>36</v>
       </c>
@@ -2120,11 +2467,17 @@
       <c r="I41" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="O41">
+        <v>34</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="V41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>37</v>
       </c>
@@ -2137,11 +2490,26 @@
       <c r="I42" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="O42">
+        <v>35</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T42" t="s">
+        <v>153</v>
+      </c>
+      <c r="U42" t="s">
+        <v>98</v>
+      </c>
+      <c r="V42" t="s">
+        <v>140</v>
+      </c>
+      <c r="W42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38</v>
       </c>
@@ -2154,11 +2522,26 @@
       <c r="I43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="O43">
+        <v>36</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T43" t="s">
+        <v>153</v>
+      </c>
+      <c r="U43" t="s">
+        <v>98</v>
+      </c>
+      <c r="V43" t="s">
+        <v>102</v>
+      </c>
+      <c r="W43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>39</v>
       </c>
@@ -2171,11 +2554,26 @@
       <c r="I44" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="O44">
+        <v>37</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T44" t="s">
+        <v>153</v>
+      </c>
+      <c r="U44" t="s">
+        <v>98</v>
+      </c>
+      <c r="V44" t="s">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>40</v>
       </c>
@@ -2188,11 +2586,26 @@
       <c r="I45" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="O45">
+        <v>38</v>
+      </c>
+      <c r="P45" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T45" t="s">
+        <v>153</v>
+      </c>
+      <c r="U45" t="s">
+        <v>81</v>
+      </c>
+      <c r="V45" t="s">
+        <v>141</v>
+      </c>
+      <c r="W45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>41</v>
       </c>
@@ -2205,11 +2618,23 @@
       <c r="I46" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="O46">
+        <v>39</v>
+      </c>
+      <c r="P46" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T46" t="s">
+        <v>153</v>
+      </c>
+      <c r="U46" t="s">
+        <v>98</v>
+      </c>
+      <c r="W46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B47" t="e">
         <v>#N/A</v>
       </c>
@@ -2219,11 +2644,26 @@
       <c r="I47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="O47">
+        <v>40</v>
+      </c>
+      <c r="P47" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="T47" t="s">
+        <v>153</v>
+      </c>
+      <c r="U47" t="s">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s">
+        <v>101</v>
+      </c>
+      <c r="W47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B48" t="e">
         <v>#N/A</v>
       </c>
@@ -2233,8 +2673,23 @@
       <c r="I48" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="O48">
+        <v>41</v>
+      </c>
+      <c r="P48" s="1" t="s">
         <v>129</v>
+      </c>
+      <c r="T48" t="s">
+        <v>153</v>
+      </c>
+      <c r="U48" t="s">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s">
+        <v>142</v>
+      </c>
+      <c r="W48" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.3">
@@ -2247,8 +2702,14 @@
       <c r="I49" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="O49">
+        <v>42</v>
+      </c>
+      <c r="P49" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="U49" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
@@ -2258,7 +2719,7 @@
       <c r="I50" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="4" t="s">
         <v>131</v>
       </c>
       <c r="U50" t="s">
@@ -2280,6 +2741,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2294,7 +2756,7 @@
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2317,7 +2779,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -2348,7 +2810,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2372,17 +2834,17 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="16"/>
     </row>
     <row r="5" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2421,7 +2883,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2451,7 +2913,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
@@ -2475,7 +2937,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2501,7 +2963,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
@@ -2534,7 +2996,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -2574,12 +3036,12 @@
       <c r="R10" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -2619,10 +3081,10 @@
       <c r="R11" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="14"/>
+      <c r="V11" s="15"/>
     </row>
     <row r="12" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
@@ -2665,7 +3127,7 @@
       <c r="U12" t="s">
         <v>97</v>
       </c>
-      <c r="V12" s="14"/>
+      <c r="V12" s="15"/>
     </row>
     <row r="13" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">

--- a/completeResults/experiment info.xlsx
+++ b/completeResults/experiment info.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9109E1B3-89F0-4D6C-BE3B-BFBAE73B550A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B47F19-C9A9-42D8-B6B5-B848BA0CA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults and finalResult" sheetId="3" r:id="rId1"/>
-    <sheet name="neighborHoodCombi final" sheetId="5" r:id="rId2"/>
+    <sheet name="neighborHoodCombi ex-final" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="161">
   <si>
     <t>results00_swap21_exchange_5050_levy6.csv</t>
   </si>
@@ -1022,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1046,6 +1047,10 @@
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1404,7 +1409,7 @@
   <dimension ref="A2:AO52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -2750,7 +2755,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
@@ -3425,4 +3430,572 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686F9225-C4F1-486A-9A72-1439D87AECEC}">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5050</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5050</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="3">
+        <v>5050</v>
+      </c>
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14"/>
+      <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="L20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A7"/>
+    <mergeCell ref="A8:A12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I17:J18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17:N17">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/completeResults/experiment info.xlsx
+++ b/completeResults/experiment info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Programming\GitHub\Cuckoo-Search-For-CVRP\completeResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B47F19-C9A9-42D8-B6B5-B848BA0CA914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93063E0-CBA0-4A5D-8CA8-79BB16477A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-116" yWindow="-116" windowWidth="24917" windowHeight="13513" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="completeResults and finalResult" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="163">
   <si>
     <t>results00_swap21_exchange_5050_levy6.csv</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>next on main</t>
+  </si>
+  <si>
+    <t>swap2-2</t>
+  </si>
+  <si>
+    <t>mainpc</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1044,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,10 +1057,6 @@
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1408,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:AO52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
@@ -2754,14 +2760,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77A0545-A8D7-41CC-A118-DFB53DF272DA}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -2784,7 +2790,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -2815,7 +2821,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2839,17 +2845,17 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -2857,25 +2863,25 @@
         <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>59</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>59</v>
@@ -2888,7 +2894,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,7 +2924,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
@@ -2942,7 +2948,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2968,7 +2974,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
@@ -3001,7 +3007,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,12 +3047,12 @@
       <c r="R10" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="15" t="s">
+      <c r="V10" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>59</v>
@@ -3086,10 +3092,10 @@
       <c r="R11" t="s">
         <v>79</v>
       </c>
-      <c r="V11" s="15"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
@@ -3111,13 +3117,13 @@
       <c r="J12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="L12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>58</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -3132,7 +3138,7 @@
       <c r="U12" t="s">
         <v>97</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
@@ -3225,7 +3231,7 @@
         <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>58</v>
@@ -3234,19 +3240,22 @@
         <v>56</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="L17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>98</v>
@@ -3259,49 +3268,85 @@
       </c>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="I18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="L18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>71</v>
+      <c r="I19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="L20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3309,7 +3354,7 @@
         <v>64</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P20" s="4" t="s">
         <v>98</v>
@@ -3324,28 +3369,27 @@
         <v>103</v>
       </c>
     </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="3"/>
       <c r="P22" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="P23" s="4" t="s">
         <v>81</v>
       </c>
@@ -3357,11 +3401,20 @@
       </c>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>61</v>
+      <c r="E24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="P24" s="4" t="s">
         <v>98</v>
@@ -3374,6 +3427,12 @@
       </c>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="P25" s="4" t="s">
         <v>83</v>
       </c>
@@ -3397,7 +3456,37 @@
     <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="I17:J18">
+  <conditionalFormatting sqref="I19:J20">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -3407,7 +3496,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
+  <conditionalFormatting sqref="J17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3417,7 +3506,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M17:N17">
+  <conditionalFormatting sqref="N17:O17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3443,7 +3532,7 @@
   <sheetFormatPr defaultRowHeight="14.8" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -3460,7 +3549,7 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
@@ -3488,7 +3577,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>57</v>
       </c>
@@ -3512,15 +3601,15 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
@@ -3553,44 +3642,44 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="18" t="s">
+      <c r="L6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="16" t="s">
         <v>62</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -3601,7 +3690,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3627,40 +3716,40 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="18" t="s">
+      <c r="L9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
@@ -3691,10 +3780,10 @@
       <c r="N10" s="3">
         <v>5050</v>
       </c>
-      <c r="V10" s="17"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="1:22" ht="15.45" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,10 +3814,10 @@
       <c r="N11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V11" s="17"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="1:22" ht="16.100000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="1" t="s">
         <v>60</v>
       </c>
@@ -3741,13 +3830,13 @@
       <c r="F12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="15" t="s">
         <v>58</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -3759,10 +3848,10 @@
       <c r="N12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="V12" s="17"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" s="3" t="s">
@@ -3817,10 +3906,10 @@
       <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="15" t="s">
         <v>64</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -3831,10 +3920,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.45" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F16" t="s">
